--- a/Admin/20150123挑战方模拟行程.xlsx
+++ b/Admin/20150123挑战方模拟行程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="19200" windowHeight="11380"/>
+    <workbookView xWindow="10600" yWindow="0" windowWidth="19200" windowHeight="11380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="154">
   <si>
     <t>第1天</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -614,12 +614,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每人填写调查问卷，截止时间23:00，延时者不得分（2分）
-每个人都撰写600字以上的日志到toyhouse，
-截止日期为23:00。延时者不得分（3分）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>记分组在23:00左右公布当天“最佳小组”
 “最佳小组”为综合git使用状况，货币
 交易情况，各小组成员的得分情况而定。
@@ -1011,279 +1005,291 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>货币市场交易记分（占总分的40%）分为两部分
+1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交易总金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（20%）：所有收税交易对应的金
+额总和为交易总金额
+交易总金额给分规则：以交易次数最多者为100%，该人得满分，交易次数在90%~100%之间的得90%，以此类推
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>货币剩余量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（20%）：最后活动结束时每个人手头的货币剩余量
+货币剩余量给分规则：以货币剩余量最多者为100%，该人得满分，交易次数在90%~100%之间的得90%，以此类推</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">之后的工作将在git上展开
+Git使用情况（占总分的30%）
+git记录次数和频率（10%）
+git上有效数据贡献（20%）                                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上传注册信息和在Git上建立小组项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+（共6分  第一次分组3分 第二次分组3分）
+ 第一次分组后各组项目经理把组内成员的teambition账号，Git账号,（修改用户名为自己的姓名），小组项目地址，分组编号上传到teambition的“清华大学2015 XLP”项目的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\任务方账号\第一次分组\第X组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件夹内。上传文档为Excel格式。截止日期2015年1月26日17:30 延时组全组成员不得分（3分）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7：00-7：38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7：38-8：15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8：15-9：15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9：15-9：25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9：25-9：26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9：26-9：27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9：27-10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10：00-10：50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10：50-11：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11：00-11：01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11：01-12：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12：55-13：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13：00-13：01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13：00-13：10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组重组（2并1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13：10-14：40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14：40-14：45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:45-15：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15：00-15：01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇报宪章修改成果，微电影制作进度，网页设计框架---第三次进度汇报，顾老师点评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15：01-16：45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16：45-17：15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17：55-18：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00-18：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18：30-18：50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18：50-19：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写调查问卷，修改宪章（在git上要有记录），上传日志到toyhouse.cc(12h前）分布式工作（共2组，每组5人来自不同组）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终版宪章成果展示，微电影，网页，宪章实物展示--第四次进度汇报,顾老师点评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用gitbook/ppt展示故事版，注意时间控制，每组五分钟（超时会“挂彩”）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论修改宪章，微电影制作，网页设计及宪章实物制作 发布会流程策划筹备 日志上传至toyhouse.cc(18：00h前）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每人填写调查问卷，截止时间23:00，延时者不得分（2分）
+每个人都撰写600字以上的日志到toyhouse，
+截止日期为23:00。延时者不得分（3分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>讨论过程中必须使用罗伯特议事规则，635书面头
 脑风暴模版和商业模式画布三种工具。（5分）
 讨论过程中各成员参与度、发言质量。（5分）
 每个小组都必须持有会议展开的记录（文字，相片，视频等）
 并且上传至teambition"清华大学 2015XLP"的
-\会议记录\第二次分组\第X组\某时间段内会议（2分）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>货币市场交易记分（占总分的40%）分为两部分
-1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>交易总金额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（20%）：所有收税交易对应的金
-额总和为交易总金额
-交易总金额给分规则：以交易次数最多者为100%，该人得满分，交易次数在90%~100%之间的得90%，以此类推
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>货币剩余量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（20%）：最后活动结束时每个人手头的货币剩余量
-货币剩余量给分规则：以货币剩余量最多者为100%，该人得满分，交易次数在90%~100%之间的得90%，以此类推</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">之后的工作将在git上展开
-Git使用情况（占总分的30%）
-git记录次数和频率（10%）
-git上有效数据贡献（20%）                                                      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-                                                    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上传注册信息和在Git上建立小组项目</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-（共6分  第一次分组3分 第二次分组3分）
- 第一次分组后各组项目经理把组内成员的teambition账号，Git账号,（修改用户名为自己的姓名），小组项目地址，分组编号上传到teambition的“清华大学2015 XLP”项目的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\任务方账号\第一次分组\第X组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>文件夹内。上传文档为Excel格式。截止日期2015年1月26日17:30 延时组全组成员不得分（3分）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7：00-7：38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7：38-8：15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8：15-9：15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9：15-9：25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9：25-9：26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9：26-9：27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9：27-10:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10：00-10：50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10：50-11：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11：00-11：01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11：01-12：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12：55-13：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13：00-13：01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13：00-13：10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小组重组（2并1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13：10-14：40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14：40-14：45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:45-15：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15：00-15：01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇报宪章修改成果，微电影制作进度，网页设计框架---第三次进度汇报，顾老师点评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讨论修改宪章，微电影制作，网页设计及宪章实物制作 发布会流程策划筹备 日志上传至toyhouse.cc(23h前</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15：01-16：45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16：45-17：15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17：55-18：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18:00-18：30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18：30-18：50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18：50-19：30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写调查问卷，修改宪章（在git上要有记录），上传日志到toyhouse.cc(12h前）分布式工作（共2组，每组5人来自不同组）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终版宪章成果展示，微电影，网页，宪章实物展示--第四次进度汇报,顾老师点评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用gitbook/ppt展示故事版，注意时间控制，每组五分钟（超时会“挂彩”）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15分钟</t>
+\会议记录\第二次分组\第X组\某时间段内会议（2分）每人填写调查问卷，截止时间23:00，延时者不得分（2分）
+每个人都撰写600字以上的日志到toyhouse，
+截止日期为23:00。延时者不得分（3分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12，5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1743,7 +1749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1894,6 +1900,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1912,49 +1963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2269,10 +2278,10 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B32" sqref="B32:C32"/>
+      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2343,13 +2352,13 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="114" customHeight="1">
-      <c r="A3" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="62" t="s">
+      <c r="A3" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="10" t="s">
         <v>18</v>
       </c>
@@ -2368,7 +2377,7 @@
       <c r="I3" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="65" t="s">
         <v>86</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -2376,11 +2385,11 @@
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="74" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="56" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="10" t="s">
         <v>77</v>
       </c>
@@ -2393,14 +2402,14 @@
       </c>
       <c r="H4" s="35"/>
       <c r="I4" s="36"/>
-      <c r="J4" s="51"/>
+      <c r="J4" s="66"/>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1" ht="93" customHeight="1">
-      <c r="A5" s="69"/>
-      <c r="B5" s="56" t="s">
+      <c r="A5" s="51"/>
+      <c r="B5" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="57"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="10" t="s">
         <v>77</v>
       </c>
@@ -2415,14 +2424,14 @@
       </c>
       <c r="H5" s="35"/>
       <c r="I5" s="36"/>
-      <c r="J5" s="52"/>
+      <c r="J5" s="67"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="99" customHeight="1">
-      <c r="A6" s="69"/>
-      <c r="B6" s="66" t="s">
+      <c r="A6" s="51"/>
+      <c r="B6" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="62" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -2442,11 +2451,11 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="188" customHeight="1">
-      <c r="A7" s="69"/>
-      <c r="B7" s="56" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="10" t="s">
         <v>77</v>
       </c>
@@ -2462,15 +2471,15 @@
       <c r="H7" s="35"/>
       <c r="I7" s="36"/>
       <c r="J7" s="38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1" ht="48" customHeight="1">
-      <c r="A8" s="69"/>
-      <c r="B8" s="56" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="57"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="10" t="s">
         <v>77</v>
       </c>
@@ -2490,11 +2499,11 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="64.5" customHeight="1">
-      <c r="A9" s="69"/>
-      <c r="B9" s="56" t="s">
+      <c r="A9" s="51"/>
+      <c r="B9" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="57"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="10" t="s">
         <v>77</v>
       </c>
@@ -2515,16 +2524,16 @@
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:12" s="5" customFormat="1" ht="64.5" customHeight="1">
-      <c r="A10" s="70"/>
-      <c r="B10" s="56" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="57"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="10" t="s">
         <v>77</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>68</v>
@@ -2538,12 +2547,12 @@
     </row>
     <row r="11" spans="1:12" s="5" customFormat="1" ht="117" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="59"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="10" t="s">
         <v>69</v>
       </c>
@@ -2566,12 +2575,12 @@
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" ht="108" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="59"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="10" t="s">
         <v>77</v>
       </c>
@@ -2594,12 +2603,12 @@
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="81" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="59"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="10" t="s">
         <v>77</v>
       </c>
@@ -2622,17 +2631,17 @@
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="52" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="57"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="10" t="s">
         <v>77</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="34" t="s">
@@ -2644,12 +2653,12 @@
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="47" customHeight="1">
       <c r="A15" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="57"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="10" t="s">
         <v>77</v>
       </c>
@@ -2664,18 +2673,18 @@
       </c>
       <c r="H15" s="35"/>
       <c r="I15" s="36"/>
-      <c r="J15" s="53" t="s">
-        <v>119</v>
+      <c r="J15" s="68" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="105.75" customHeight="1">
       <c r="A16" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="59"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="10" t="s">
         <v>77</v>
       </c>
@@ -2694,16 +2703,16 @@
       <c r="I16" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="J16" s="54"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="112" customHeight="1">
       <c r="A17" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="57"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="10" t="s">
         <v>77</v>
       </c>
@@ -2722,16 +2731,16 @@
       <c r="I17" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="J17" s="55"/>
+      <c r="J17" s="70"/>
     </row>
     <row r="18" spans="1:10" s="5" customFormat="1" ht="98" customHeight="1">
       <c r="A18" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="59"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="10" t="s">
         <v>77</v>
       </c>
@@ -2739,7 +2748,7 @@
         <v>30</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G18" s="34" t="s">
         <v>96</v>
@@ -2754,12 +2763,12 @@
     </row>
     <row r="19" spans="1:10" s="5" customFormat="1" ht="42" customHeight="1">
       <c r="A19" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="57"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="10" t="s">
         <v>77</v>
       </c>
@@ -2778,12 +2787,12 @@
     </row>
     <row r="20" spans="1:10" s="5" customFormat="1" ht="126.75" customHeight="1">
       <c r="A20" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" s="59"/>
+        <v>128</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="64"/>
       <c r="D20" s="10" t="s">
         <v>77</v>
       </c>
@@ -2800,18 +2809,18 @@
         <v>5</v>
       </c>
       <c r="I20" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="J20" s="37" t="s">
         <v>100</v>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="8" customFormat="1" ht="41.25" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="61"/>
+        <v>129</v>
+      </c>
+      <c r="B21" s="57"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="10"/>
       <c r="E21" s="15"/>
       <c r="F21" s="26"/>
@@ -2822,12 +2831,12 @@
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" ht="147" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B22" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="65"/>
+      <c r="C22" s="60"/>
       <c r="D22" s="10" t="s">
         <v>18</v>
       </c>
@@ -2842,20 +2851,20 @@
         <v>2</v>
       </c>
       <c r="I22" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="37" t="s">
         <v>102</v>
-      </c>
-      <c r="J22" s="37" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="121" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="57"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="10" t="s">
         <v>77</v>
       </c>
@@ -2872,12 +2881,12 @@
     </row>
     <row r="24" spans="1:10" s="5" customFormat="1" ht="268" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="57"/>
+        <v>132</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="54"/>
       <c r="D24" s="10" t="s">
         <v>77</v>
       </c>
@@ -2893,17 +2902,17 @@
       <c r="H24" s="35"/>
       <c r="I24" s="36"/>
       <c r="J24" s="43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="5" customFormat="1" ht="337" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="57"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="10" t="s">
         <v>77</v>
       </c>
@@ -2912,24 +2921,24 @@
       </c>
       <c r="F25" s="25"/>
       <c r="G25" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H25" s="35">
         <v>14</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J25" s="37"/>
     </row>
     <row r="26" spans="1:10" s="2" customFormat="1" ht="116.25" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="57"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="10" t="s">
         <v>77</v>
       </c>
@@ -2946,12 +2955,12 @@
     </row>
     <row r="27" spans="1:10" s="7" customFormat="1" ht="116.25" customHeight="1">
       <c r="A27" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="B27" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="59"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="10" t="s">
         <v>77</v>
       </c>
@@ -2959,32 +2968,32 @@
         <v>38</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G27" s="34" t="s">
         <v>96</v>
       </c>
       <c r="H27" s="35">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J27" s="37"/>
     </row>
     <row r="28" spans="1:10" s="7" customFormat="1" ht="116.25" customHeight="1">
       <c r="A28" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="57"/>
+        <v>137</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="54"/>
       <c r="D28" s="10" t="s">
         <v>77</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F28" s="24"/>
       <c r="G28" s="34" t="s">
@@ -2992,18 +3001,18 @@
       </c>
       <c r="H28" s="35"/>
       <c r="I28" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J28" s="37"/>
     </row>
-    <row r="29" spans="1:10" s="7" customFormat="1" ht="116.25" customHeight="1">
+    <row r="29" spans="1:10" s="7" customFormat="1" ht="175" customHeight="1">
       <c r="A29" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="57"/>
+        <v>139</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="54"/>
       <c r="D29" s="10" t="s">
         <v>77</v>
       </c>
@@ -3014,22 +3023,22 @@
       <c r="G29" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="H29" s="35">
-        <v>12</v>
+      <c r="H29" s="71" t="s">
+        <v>153</v>
       </c>
       <c r="I29" s="36" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="J29" s="37"/>
     </row>
     <row r="30" spans="1:10" s="5" customFormat="1" ht="102" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" s="59"/>
+        <v>140</v>
+      </c>
+      <c r="B30" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="64"/>
       <c r="D30" s="12" t="s">
         <v>77</v>
       </c>
@@ -3044,13 +3053,13 @@
         <v>30</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J30" s="37"/>
     </row>
     <row r="31" spans="1:10" s="5" customFormat="1" ht="54" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B31" s="48"/>
       <c r="C31" s="49"/>
@@ -3064,12 +3073,12 @@
     </row>
     <row r="32" spans="1:10" s="5" customFormat="1" ht="177" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B32" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="57"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="12" t="s">
         <v>77</v>
       </c>
@@ -3084,22 +3093,22 @@
         <v>2</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J32" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="5" customFormat="1" ht="102" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B33" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="57"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>39</v>
@@ -3114,20 +3123,20 @@
         <v>10</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J33" s="37"/>
     </row>
     <row r="34" spans="1:10" s="5" customFormat="1" ht="102" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="B34" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="57"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>39</v>
@@ -3142,12 +3151,12 @@
     </row>
     <row r="35" spans="1:10" s="5" customFormat="1" ht="212" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B35" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="59"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="12" t="s">
         <v>48</v>
       </c>
@@ -3156,22 +3165,22 @@
       </c>
       <c r="F35" s="25"/>
       <c r="G35" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H35" s="35">
         <v>35</v>
       </c>
       <c r="I35" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J35" s="37"/>
     </row>
     <row r="36" spans="1:10" s="5" customFormat="1" ht="102" customHeight="1">
       <c r="A36" s="3"/>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="57"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="12" t="s">
         <v>4</v>
       </c>
@@ -3192,6 +3201,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B33:C33"/>
@@ -3208,26 +3237,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Admin/20150123挑战方模拟行程.xlsx
+++ b/Admin/20150123挑战方模拟行程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10600" yWindow="0" windowWidth="19200" windowHeight="11380"/>
+    <workbookView xWindow="6880" yWindow="2880" windowWidth="20940" windowHeight="13960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="153">
   <si>
     <t>第1天</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,11 +308,6 @@
   </si>
   <si>
     <t>3D打印笔打印机，或</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宣言，宪章讨论，撰写宪章故事版并上传至 teambition
-12点之前上传会议讨论结果（会议记要）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -379,64 +374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">            每组必须有且仅有一个项目经理        </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>团队组建</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-  第一次分组3分 
-上传第一次分组后项目经理将本组任务分工文档到teambition"清华大学2015 XLP"项目中的\团队组建\第一次分组\第X组\文件夹中。截止日期2015年1月26日13:00  延时组全组成员不得分（3分）                                                                                     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>teambition任务发布</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3分
-项目经理在teambition “清华大学2015 XLP”项目的各自小组任务栏中发布任务，接受任务的成员在完成任务时通过teambition对任务反馈
-项目经理必须通过teambition给每个人发布命令，少一人少得1分，每天最少1条，组员对给自己的任务进行反馈，有几条任务没有反馈，就少得几分，直至当天本项得分为零为止。截止到24:00。
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -503,6 +440,366 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据顾老师的点评打分（15分）
+严格控制时间在要求时间之内，超时者不得分（3分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> Git技术团队依据团队现场游戏排名来计分，团队得分即为个人得分
+   第1名8分，第二名7分以此类推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按时到达（2分）
+迟到者不得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据顾老师的点评打分（25分）
+严格控制时间在要求时间之内，超时者不得分（5分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩排整体效果（整体统一给分  5分）
+各成员参与度，活跃度（5分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>发布会整体效果（10分  所有人统一给分）
+宪章组（20分）根据最终结果给分 不包括通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雇佣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+方式工作等原本不在分工文档中的成员
+微电影组（20分）根据最终结果给分 不包括通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雇佣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+方式工作等原本不在分工文档中的成员
+网页组（20分）根据最终结果给分 不包括通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雇佣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+方式工作等原本不在分工文档中的成员
+实物组（20分）根据最终结果给分 不包括通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雇佣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+方式工作等原本不在分工文档中的成员
+若筹备组专干，则筹备组根据最终发布会效果专门给分（20分）否则，则按照原组成绩给分
+最佳个人奖：根据得分情况，参与度，活跃度等等各种因素评判
+得奖者得5分</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒋程宇(待定)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈威（待定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡维德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务方负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉宾演讲（大数据）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>货币市场交易记分（占总分的40%）分为两部分
+1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交易总金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（20%）：所有收税交易对应的金
+额总和为交易总金额
+交易总金额给分规则：以交易次数最多者为100%，该人得满分，交易次数在90%~100%之间的得90%，以此类推
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>货币剩余量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（20%）：最后活动结束时每个人手头的货币剩余量
+货币剩余量给分规则：以货币剩余量最多者为100%，该人得满分，交易次数在90%~100%之间的得90%，以此类推</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7：00-7：38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7：38-8：15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8：15-9：15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9：15-9：25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9：25-9：26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9：26-9：27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9：27-10:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10：00-10：50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10：50-11：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11：00-11：01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11：01-12：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12：55-13：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13：00-13：01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13：00-13：10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组重组（2并1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13：10-14：40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14：40-14：45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14:45-15：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15：00-15：01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇报宪章修改成果，微电影制作进度，网页设计框架---第三次进度汇报，顾老师点评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15：01-16：45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16：45-17：15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17：55-18：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00-18：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18：30-18：50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18：50-19：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写调查问卷，修改宪章（在git上要有记录），上传日志到toyhouse.cc(12h前）分布式工作（共2组，每组5人来自不同组）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终版宪章成果展示，微电影，网页，宪章实物展示--第四次进度汇报,顾老师点评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用gitbook/ppt展示故事版，注意时间控制，每组五分钟（超时会“挂彩”）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论修改宪章，微电影制作，网页设计及宪章实物制作 发布会流程策划筹备 日志上传至toyhouse.cc(18：00h前）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12，5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -511,7 +808,7 @@
 的创意、美观等因素对其进行评分（5分）         
 可以使用3D打印制作出实物，记分组根据实物
 制作情况给分。（3分）
-若有实物制作，必须在当天17:00前完
+若有实物制作，必须在当天12:00前完
 成若延时上交，其3分满分降为2分
 不制作实物不得分，也不扣分</t>
     </r>
@@ -526,6 +823,71 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记分组在12:30左右公布当天“最佳小组”
+“最佳小组”为综合git使用状况，货币
+交易情况，各小组成员的得分情况而定。
+获得最佳小组队伍每人得5分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            每组必须有且仅有一个项目经理        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>团队组建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  第一次分组3分 
+上传第一次分组后项目经理将本组任务分工文档到teambition"清华大学2015 XLP"项目中的\团队组建\第一次分组\第X组\文件夹中。截止日期2015年1月23日10:00  延时组全组成员不得分（3分）                                                                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>teambition任务发布</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3分
+项目经理在teambition “清华大学2015 XLP”项目的各自小组任务栏中发布任务，接受任务的成员在完成任务时通过teambition对任务反馈
+项目经理必须通过teambition给每个人发布命令，少一人少得1分，每天最少1条，组员对给自己的任务进行反馈，有几条任务没有反馈，就少得几分，直至当天本项得分为零为止。截止到10:00。
 </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -560,22 +922,86 @@
         <scheme val="minor"/>
       </rPr>
       <t>文件夹中
-截止日期为2015年1月26日12:00。延时上交者不得分（3分）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据顾老师的点评打分（15分）
-严格控制时间在要求时间之内，超时者不得分（3分）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t> Git技术团队依据团队现场游戏排名来计分，团队得分即为个人得分
-   第1名8分，第二名7分以此类推</t>
+截止日期为2015年1月23日9：30。延时上交者不得分（3分）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">之后的工作将在git上展开
+Git使用情况（占总分的30%）
+git记录次数和频率（10%）
+git上有效数据贡献（20%）                                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上传注册信息和在Git上建立小组项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+（共6分  第一次分组3分 第二次分组3分）
+ 第一次分组后各组项目经理把组内成员的teambition账号，Git账号,（修改用户名为自己的姓名），小组项目地址，分组编号上传到teambition的“清华大学2015 XLP”项目的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\任务方账号\第一次分组\第X组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件夹内。上传文档为Excel格式。截止日期2015年1月23日11：00 延时组全组成员不得分（3分）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -608,28 +1034,16 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">（2分）
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记分组在23:00左右公布当天“最佳小组”
-“最佳小组”为综合git使用状况，货币
-交易情况，各小组成员的得分情况而定。
-获得最佳小组队伍每人得5分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按时到达（2分）
-迟到者不得分</t>
+      <t>（2分
+截止日期为2015年1月23日12：00。延时上交者不得分</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>teambition任务发布
 3分
 项目经理在teambition “清华大学2015 XLP”项目的各自小组任务栏中发布任务，接受任务的成员在完成任务时通过teambition对任务反馈
-项目经理必须通过teambition给每个人发布命令，少一人少得1分，每天最少1条，组员对给自己的任务进行反馈，有几条任务没有反馈，就少得几分，直至当天本项得分为零为止。截止到24:00。</t>
+项目经理必须通过teambition给每个人发布命令，少一人少得1分，每天最少1条，组员对给自己的任务进行反馈，有几条任务没有反馈，就少得几分，直至当天本项得分为零为止。截止到14:00。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -684,7 +1098,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">文件夹中。截止日期2015年1月27日12:00  延时组不得分（3分）
+      <t xml:space="preserve">文件夹中。截止日期2015年1月23日14：00  延时组不得分（3分）
                                                     </t>
     </r>
     <r>
@@ -733,7 +1147,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">文件夹内。上传文档为Excel格式。截止日期2015年1月27日12:30 延时组不得分（3分）
+      <t xml:space="preserve">文件夹内。上传文档为Excel格式。截止日期2015年1月23日14：00 延时组不得分（3分）
 </t>
     </r>
     <r>
@@ -748,6 +1162,23 @@
       </rPr>
       <t/>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论过程中必须使用罗伯特议事规则，635书面头
+脑风暴模版和商业模式画布三种工具。（5分）
+讨论过程中各成员参与度、发言质量。（5分）
+每个小组都必须持有会议展开的记录（文字，相片，视频等）
+并且上传至teambition"清华大学 2015XLP"的
+\会议记录\第二次分组\第X组\某时间段内会议（2分）每人填写调查问卷，截止时间17:00，延时者不得分（2分）
+每个人都撰写600字以上的日志到toyhouse，
+截止日期为17:00。延时者不得分（3分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每人填写调查问卷，截止时间12:00，延时者不得分（2分）
+每个人都撰写300字以上的日志到toyhouse，
+截止日期为12:00。延时者不得分（3分）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -833,463 +1264,14 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-截止日期2015年1月28日12:00  延时全组不得分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+截止日期2015年1月23日15:00  延时全组不得分
 </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>根据顾老师的点评打分（25分）
-严格控制时间在要求时间之内，超时者不得分（5分）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>teambition任务发布
-3分
- 项目经理在teambition “清华大学2015 XLP”项目的各自小组任务栏中发布任务，接受任务的成员在完成任务时通过teambition对任务反馈
-项目经理必须通过teambition给每个人发布命令，少一人少得1分，每天最少1条，组员对给自己的任务进行反馈，有几条任务没有反馈，就少得几分，直至当天本项得分为零为止。截止到15:00。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彩排整体效果（整体统一给分  5分）
-各成员参与度，活跃度（5分）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>发布会整体效果（10分  所有人统一给分）
-宪章组（20分）根据最终结果给分 不包括通过</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>雇佣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-方式工作等原本不在分工文档中的成员
-微电影组（20分）根据最终结果给分 不包括通过</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>雇佣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-方式工作等原本不在分工文档中的成员
-网页组（20分）根据最终结果给分 不包括通过</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>雇佣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-方式工作等原本不在分工文档中的成员
-实物组（20分）根据最终结果给分 不包括通过</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>雇佣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-方式工作等原本不在分工文档中的成员
-若筹备组专干，则筹备组根据最终发布会效果专门给分（20分）否则，则按照原组成绩给分
-最佳个人奖：根据得分情况，参与度，活跃度等等各种因素评判
-得奖者得5分</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒋程宇(待定)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈威（待定）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔡维德</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务方负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉宾演讲（大数据）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>货币市场交易记分（占总分的40%）分为两部分
-1.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>交易总金额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（20%）：所有收税交易对应的金
-额总和为交易总金额
-交易总金额给分规则：以交易次数最多者为100%，该人得满分，交易次数在90%~100%之间的得90%，以此类推
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>货币剩余量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（20%）：最后活动结束时每个人手头的货币剩余量
-货币剩余量给分规则：以货币剩余量最多者为100%，该人得满分，交易次数在90%~100%之间的得90%，以此类推</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">之后的工作将在git上展开
-Git使用情况（占总分的30%）
-git记录次数和频率（10%）
-git上有效数据贡献（20%）                                                      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-                                                    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上传注册信息和在Git上建立小组项目</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-（共6分  第一次分组3分 第二次分组3分）
- 第一次分组后各组项目经理把组内成员的teambition账号，Git账号,（修改用户名为自己的姓名），小组项目地址，分组编号上传到teambition的“清华大学2015 XLP”项目的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\任务方账号\第一次分组\第X组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>文件夹内。上传文档为Excel格式。截止日期2015年1月26日17:30 延时组全组成员不得分（3分）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7：00-7：38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7：38-8：15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8：15-9：15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9：15-9：25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9：25-9：26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9：26-9：27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9：27-10:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10：00-10：50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10：50-11：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11：00-11：01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11：01-12：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12：55-13：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13：00-13：01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13：00-13：10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小组重组（2并1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13：10-14：40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14：40-14：45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14:45-15：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15：00-15：01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇报宪章修改成果，微电影制作进度，网页设计框架---第三次进度汇报，顾老师点评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15：01-16：45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16：45-17：15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17：55-18：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18:00-18：30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18：30-18：50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18：50-19：30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写调查问卷，修改宪章（在git上要有记录），上传日志到toyhouse.cc(12h前）分布式工作（共2组，每组5人来自不同组）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终版宪章成果展示，微电影，网页，宪章实物展示--第四次进度汇报,顾老师点评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用gitbook/ppt展示故事版，注意时间控制，每组五分钟（超时会“挂彩”）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讨论修改宪章，微电影制作，网页设计及宪章实物制作 发布会流程策划筹备 日志上传至toyhouse.cc(18：00h前）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每人填写调查问卷，截止时间23:00，延时者不得分（2分）
-每个人都撰写600字以上的日志到toyhouse，
-截止日期为23:00。延时者不得分（3分）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讨论过程中必须使用罗伯特议事规则，635书面头
-脑风暴模版和商业模式画布三种工具。（5分）
-讨论过程中各成员参与度、发言质量。（5分）
-每个小组都必须持有会议展开的记录（文字，相片，视频等）
-并且上传至teambition"清华大学 2015XLP"的
-\会议记录\第二次分组\第X组\某时间段内会议（2分）每人填写调查问卷，截止时间23:00，延时者不得分（2分）
-每个人都撰写600字以上的日志到toyhouse，
-截止日期为23:00。延时者不得分（3分）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12，5</t>
+    <t>宣言，宪章讨论，撰写宪章故事版并上传至 teambition
+9：30点之前上传会议讨论结果（会议记要）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1900,6 +1882,45 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1909,42 +1930,6 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1961,9 +1946,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2278,10 +2260,10 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2319,16 +2301,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="I1" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="J1" s="47" t="s">
         <v>81</v>
-      </c>
-      <c r="J1" s="47" t="s">
-        <v>82</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>3</v>
@@ -2348,17 +2330,17 @@
       <c r="H2" s="31"/>
       <c r="I2" s="32"/>
       <c r="J2" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="114" customHeight="1">
-      <c r="A3" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="56"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="10" t="s">
         <v>18</v>
       </c>
@@ -2369,49 +2351,49 @@
         <v>50</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H3" s="35">
         <v>6</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" s="65" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="J3" s="66" t="s">
+        <v>143</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="74" customHeight="1">
-      <c r="A4" s="51"/>
-      <c r="B4" s="53" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H4" s="35"/>
       <c r="I4" s="36"/>
-      <c r="J4" s="66"/>
+      <c r="J4" s="67"/>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1" ht="93" customHeight="1">
-      <c r="A5" s="51"/>
-      <c r="B5" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="54"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="52"/>
       <c r="D5" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>35</v>
@@ -2420,18 +2402,18 @@
         <v>52</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H5" s="35"/>
       <c r="I5" s="36"/>
-      <c r="J5" s="67"/>
+      <c r="J5" s="68"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="99" customHeight="1">
-      <c r="A6" s="51"/>
-      <c r="B6" s="61" t="s">
+      <c r="A6" s="64"/>
+      <c r="B6" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="60" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -2442,22 +2424,22 @@
         <v>53</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H6" s="35"/>
       <c r="I6" s="36"/>
       <c r="J6" s="37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="188" customHeight="1">
-      <c r="A7" s="51"/>
-      <c r="B7" s="53" t="s">
+      <c r="A7" s="64"/>
+      <c r="B7" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>64</v>
@@ -2466,22 +2448,22 @@
         <v>13</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="36"/>
       <c r="J7" s="38" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1" ht="48" customHeight="1">
-      <c r="A8" s="51"/>
-      <c r="B8" s="53" t="s">
+      <c r="A8" s="64"/>
+      <c r="B8" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>23</v>
@@ -2490,22 +2472,22 @@
         <v>55</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="36"/>
       <c r="J8" s="39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="64.5" customHeight="1">
-      <c r="A9" s="51"/>
-      <c r="B9" s="53" t="s">
+      <c r="A9" s="64"/>
+      <c r="B9" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>22</v>
@@ -2514,32 +2496,32 @@
         <v>57</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
       <c r="J9" s="40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:12" s="5" customFormat="1" ht="64.5" customHeight="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F10" s="25" t="s">
         <v>68</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="36"/>
@@ -2547,12 +2529,12 @@
     </row>
     <row r="11" spans="1:12" s="5" customFormat="1" ht="117" customHeight="1">
       <c r="A11" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="64"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="10" t="s">
         <v>69</v>
       </c>
@@ -2563,26 +2545,26 @@
         <v>28</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H11" s="35">
         <v>8</v>
       </c>
       <c r="I11" s="41" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" ht="108" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="64"/>
+        <v>109</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="62"/>
       <c r="D12" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>10</v>
@@ -2591,26 +2573,26 @@
         <v>60</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H12" s="35">
         <v>15</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="J12" s="42"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="81" customHeight="1">
       <c r="A13" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="64"/>
+      <c r="C13" s="62"/>
       <c r="D13" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>27</v>
@@ -2619,33 +2601,33 @@
         <v>62</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H13" s="35">
         <v>18</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J13" s="37"/>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="52" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
@@ -2653,14 +2635,14 @@
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="47" customHeight="1">
       <c r="A15" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="54"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>63</v>
@@ -2669,24 +2651,24 @@
         <v>24</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H15" s="35"/>
       <c r="I15" s="36"/>
-      <c r="J15" s="68" t="s">
-        <v>117</v>
+      <c r="J15" s="69" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="105.75" customHeight="1">
       <c r="A16" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="64"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>63</v>
@@ -2695,26 +2677,26 @@
         <v>25</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H16" s="35">
         <v>8</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="J16" s="69"/>
+        <v>94</v>
+      </c>
+      <c r="J16" s="70"/>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="112" customHeight="1">
       <c r="A17" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="54"/>
+        <v>114</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="52"/>
       <c r="D17" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>10</v>
@@ -2723,54 +2705,54 @@
         <v>29</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H17" s="35">
         <v>12</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="J17" s="70"/>
+        <v>146</v>
+      </c>
+      <c r="J17" s="71"/>
     </row>
     <row r="18" spans="1:10" s="5" customFormat="1" ht="98" customHeight="1">
       <c r="A18" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="64"/>
+        <v>115</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="62"/>
       <c r="D18" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H18" s="35">
         <v>18</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J18" s="37"/>
     </row>
     <row r="19" spans="1:10" s="5" customFormat="1" ht="42" customHeight="1">
       <c r="A19" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="54"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>33</v>
@@ -2779,7 +2761,7 @@
         <v>31</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H19" s="35"/>
       <c r="I19" s="36"/>
@@ -2787,14 +2769,14 @@
     </row>
     <row r="20" spans="1:10" s="5" customFormat="1" ht="126.75" customHeight="1">
       <c r="A20" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="64"/>
+        <v>117</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="62"/>
       <c r="D20" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>32</v>
@@ -2803,24 +2785,24 @@
         <v>17</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H20" s="35">
         <v>5</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="8" customFormat="1" ht="41.25" customHeight="1">
       <c r="A21" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="58"/>
+        <v>118</v>
+      </c>
+      <c r="B21" s="55"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="10"/>
       <c r="E21" s="15"/>
       <c r="F21" s="26"/>
@@ -2831,12 +2813,12 @@
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" ht="147" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="60"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="10" t="s">
         <v>18</v>
       </c>
@@ -2845,35 +2827,35 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H22" s="35">
         <v>2</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="121" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="52"/>
+      <c r="D23" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H23" s="35"/>
       <c r="I23" s="36"/>
@@ -2881,73 +2863,73 @@
     </row>
     <row r="24" spans="1:10" s="5" customFormat="1" ht="268" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" s="54"/>
+        <v>121</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="52"/>
       <c r="D24" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="25" t="s">
-        <v>74</v>
-      </c>
       <c r="G24" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H24" s="35"/>
       <c r="I24" s="36"/>
       <c r="J24" s="43" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="5" customFormat="1" ht="337" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="54"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="25"/>
       <c r="G25" s="34" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H25" s="35">
         <v>14</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="J25" s="37"/>
     </row>
     <row r="26" spans="1:10" s="2" customFormat="1" ht="116.25" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="54"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>37</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H26" s="35"/>
       <c r="I26" s="36"/>
@@ -2955,111 +2937,111 @@
     </row>
     <row r="27" spans="1:10" s="7" customFormat="1" ht="116.25" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="64"/>
+        <v>125</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="62"/>
       <c r="D27" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H27" s="35">
         <v>30</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J27" s="37"/>
     </row>
     <row r="28" spans="1:10" s="7" customFormat="1" ht="116.25" customHeight="1">
       <c r="A28" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="54"/>
+        <v>126</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="52"/>
       <c r="D28" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F28" s="24"/>
       <c r="G28" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H28" s="35"/>
       <c r="I28" s="36" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:10" s="7" customFormat="1" ht="175" customHeight="1">
       <c r="A29" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="B29" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" s="54"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="H29" s="71" t="s">
-        <v>153</v>
+        <v>92</v>
+      </c>
+      <c r="H29" s="50" t="s">
+        <v>140</v>
       </c>
       <c r="I29" s="36" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J29" s="37"/>
     </row>
     <row r="30" spans="1:10" s="5" customFormat="1" ht="102" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B30" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="64"/>
+        <v>129</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="62"/>
       <c r="D30" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>40</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H30" s="35">
         <v>30</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J30" s="37"/>
     </row>
     <row r="31" spans="1:10" s="5" customFormat="1" ht="54" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B31" s="48"/>
       <c r="C31" s="49"/>
@@ -3073,42 +3055,40 @@
     </row>
     <row r="32" spans="1:10" s="5" customFormat="1" ht="177" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="54"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F32" s="25"/>
       <c r="G32" s="34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H32" s="35">
         <v>2</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="J32" s="37" t="s">
-        <v>106</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="J32" s="37"/>
     </row>
     <row r="33" spans="1:10" s="5" customFormat="1" ht="102" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="B33" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="54"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="12" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>39</v>
@@ -3117,33 +3097,33 @@
         <v>45</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H33" s="35">
         <v>10</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="J33" s="37"/>
     </row>
     <row r="34" spans="1:10" s="5" customFormat="1" ht="102" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B34" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="54"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="12" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F34" s="25"/>
       <c r="G34" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H34" s="35"/>
       <c r="I34" s="36"/>
@@ -3151,12 +3131,12 @@
     </row>
     <row r="35" spans="1:10" s="5" customFormat="1" ht="212" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="64"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="12" t="s">
         <v>48</v>
       </c>
@@ -3165,22 +3145,22 @@
       </c>
       <c r="F35" s="25"/>
       <c r="G35" s="34" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H35" s="35">
         <v>35</v>
       </c>
       <c r="I35" s="32" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="J35" s="37"/>
     </row>
     <row r="36" spans="1:10" s="5" customFormat="1" ht="102" customHeight="1">
       <c r="A36" s="3"/>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="54"/>
+      <c r="C36" s="52"/>
       <c r="D36" s="12" t="s">
         <v>4</v>
       </c>
@@ -3201,8 +3181,13 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B35:C35"/>
@@ -3210,18 +3195,12 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="A3:A10"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J15:J17"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
@@ -3237,6 +3216,7 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Admin/20150123挑战方模拟行程.xlsx
+++ b/Admin/20150123挑战方模拟行程.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6880" yWindow="2880" windowWidth="20940" windowHeight="13960"/>
+    <workbookView xWindow="6885" yWindow="2910" windowWidth="20730" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="149">
   <si>
     <t>第1天</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,10 +84,6 @@
   </si>
   <si>
     <t>任务内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ungit技术拍卖（只提供给一个组）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -149,15 +145,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出价最高的小组给予Ungit技术支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>任务方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场部，任务方</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -667,10 +655,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7：00-7：38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7：38-8：15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -700,14 +684,6 @@
   </si>
   <si>
     <t>10：50-11：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11：00-11：01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11：01-12：00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1272,6 +1248,14 @@
   <si>
     <t>宣言，宪章讨论，撰写宪章故事版并上传至 teambition
 9：30点之前上传会议讨论结果（会议记要）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7：30-7：38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11：00-12：00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1891,6 +1875,39 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1913,52 +1930,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2257,33 +2241,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="20" customWidth="1"/>
     <col min="3" max="3" width="34.5" style="21" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.875" style="27" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="31" customWidth="1"/>
     <col min="8" max="8" width="19" style="31" customWidth="1"/>
-    <col min="9" max="9" width="58.6640625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="49.6640625" style="44" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" style="3" customWidth="1"/>
-    <col min="12" max="13" width="16.33203125" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="3"/>
+    <col min="9" max="9" width="58.625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="49.625" style="44" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="3" customWidth="1"/>
+    <col min="12" max="13" width="16.375" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1">
+    <row r="1" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -2301,16 +2285,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="47" t="s">
         <v>78</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" s="47" t="s">
-        <v>81</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>3</v>
@@ -2319,7 +2303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" ht="24.75" customHeight="1">
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2330,884 +2314,842 @@
       <c r="H2" s="31"/>
       <c r="I2" s="32"/>
       <c r="J2" s="33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="114" customHeight="1">
-      <c r="A3" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="54"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="65"/>
       <c r="D3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H3" s="35">
         <v>6</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="66" t="s">
-        <v>143</v>
+        <v>81</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>137</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="74" customHeight="1">
-      <c r="A4" s="64"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="56"/>
       <c r="B4" s="51" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="34" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H4" s="35"/>
       <c r="I4" s="36"/>
-      <c r="J4" s="67"/>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="93" customHeight="1">
-      <c r="A5" s="64"/>
+      <c r="J4" s="59"/>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="56"/>
       <c r="B5" s="51" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C5" s="52"/>
       <c r="D5" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H5" s="35"/>
       <c r="I5" s="36"/>
-      <c r="J5" s="68"/>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="99" customHeight="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="60" t="s">
+      <c r="J5" s="60"/>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="56"/>
+      <c r="B6" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="71" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H6" s="35"/>
       <c r="I6" s="36"/>
       <c r="J6" s="37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="188" customHeight="1">
-      <c r="A7" s="64"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="188.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="56"/>
       <c r="B7" s="51" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C7" s="52"/>
       <c r="D7" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H7" s="35"/>
       <c r="I7" s="36"/>
       <c r="J7" s="38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="48" customHeight="1">
-      <c r="A8" s="64"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="56"/>
       <c r="B8" s="51" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="36"/>
       <c r="J8" s="39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="64.5" customHeight="1">
-      <c r="A9" s="64"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="56"/>
       <c r="B9" s="51" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C9" s="52"/>
       <c r="D9" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
       <c r="J9" s="40" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="64.5" customHeight="1">
-      <c r="A10" s="65"/>
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="57"/>
       <c r="B10" s="51" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10" s="52"/>
       <c r="D10" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H10" s="35"/>
       <c r="I10" s="36"/>
       <c r="J10" s="40"/>
     </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="117" customHeight="1">
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="62"/>
+        <v>104</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="54"/>
       <c r="D11" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H11" s="35">
         <v>8</v>
       </c>
       <c r="I11" s="41" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="J11" s="40"/>
     </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="108" customHeight="1">
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="62"/>
+        <v>105</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="54"/>
       <c r="D12" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H12" s="35">
         <v>15</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J12" s="42"/>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="81" customHeight="1">
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="62"/>
+        <v>106</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="54"/>
       <c r="D13" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H13" s="35">
         <v>18</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J13" s="37"/>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="52" customHeight="1">
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="51.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="34" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
       <c r="J14" s="37"/>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="47" customHeight="1">
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B15" s="51" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="52"/>
       <c r="D15" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H15" s="35"/>
       <c r="I15" s="36"/>
-      <c r="J15" s="69" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="105.75" customHeight="1">
+      <c r="J15" s="61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="62"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H16" s="35">
         <v>8</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="J16" s="70"/>
-    </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="112" customHeight="1">
+        <v>91</v>
+      </c>
+      <c r="J16" s="62"/>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="111.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C17" s="52"/>
       <c r="D17" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H17" s="35">
         <v>12</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="J17" s="71"/>
-    </row>
-    <row r="18" spans="1:10" s="5" customFormat="1" ht="98" customHeight="1">
+        <v>140</v>
+      </c>
+      <c r="J17" s="63"/>
+    </row>
+    <row r="18" spans="1:10" s="5" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="62"/>
+        <v>111</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="54"/>
       <c r="D18" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H18" s="35">
         <v>18</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J18" s="37"/>
     </row>
-    <row r="19" spans="1:10" s="5" customFormat="1" ht="42" customHeight="1">
-      <c r="A19" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="51" t="s">
+    <row r="19" spans="1:10" s="5" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="25" t="s">
+      <c r="G19" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="35">
+        <v>5</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="J19" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="8" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
+    </row>
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
-    </row>
-    <row r="20" spans="1:10" s="5" customFormat="1" ht="126.75" customHeight="1">
-      <c r="A20" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="25" t="s">
+      <c r="C21" s="69"/>
+      <c r="D21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="34" t="s">
+      <c r="E21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="35">
+        <v>2</v>
+      </c>
+      <c r="I21" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="H20" s="35">
-        <v>5</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="8" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
-    </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" ht="147" customHeight="1">
+      <c r="J21" s="37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="58"/>
+        <v>114</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="52"/>
       <c r="D22" s="10" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="H22" s="35">
-        <v>2</v>
-      </c>
-      <c r="I22" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="J22" s="37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" ht="121" customHeight="1">
+        <v>82</v>
+      </c>
+      <c r="H22" s="35"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
+    </row>
+    <row r="23" spans="1:10" s="5" customFormat="1" ht="267.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="C23" s="52"/>
       <c r="D23" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="25"/>
+        <v>69</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>70</v>
+      </c>
       <c r="G23" s="34" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H23" s="35"/>
       <c r="I23" s="36"/>
-      <c r="J23" s="37"/>
-    </row>
-    <row r="24" spans="1:10" s="5" customFormat="1" ht="268" customHeight="1">
+      <c r="J23" s="43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="5" customFormat="1" ht="336.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="C24" s="52"/>
       <c r="D24" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>73</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F24" s="25"/>
       <c r="G24" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" s="35"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="43" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="5" customFormat="1" ht="337" customHeight="1">
-      <c r="A25" s="14" t="s">
-        <v>123</v>
+        <v>101</v>
+      </c>
+      <c r="H24" s="35">
+        <v>14</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="J24" s="37"/>
+    </row>
+    <row r="25" spans="1:10" s="2" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C25" s="52"/>
       <c r="D25" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="25"/>
+        <v>73</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="24"/>
       <c r="G25" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="H25" s="35">
-        <v>14</v>
-      </c>
-      <c r="I25" s="36" t="s">
-        <v>151</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
       <c r="J25" s="37"/>
     </row>
-    <row r="26" spans="1:10" s="2" customFormat="1" ht="116.25" customHeight="1">
+    <row r="26" spans="1:10" s="7" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="52"/>
+        <v>119</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="54"/>
       <c r="D26" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="24"/>
+        <v>35</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="G26" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="H26" s="35"/>
-      <c r="I26" s="36"/>
+        <v>89</v>
+      </c>
+      <c r="H26" s="35">
+        <v>30</v>
+      </c>
+      <c r="I26" s="36" t="s">
+        <v>93</v>
+      </c>
       <c r="J26" s="37"/>
     </row>
-    <row r="27" spans="1:10" s="7" customFormat="1" ht="116.25" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B27" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="62"/>
+    <row r="27" spans="1:10" s="7" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="52"/>
       <c r="D27" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>138</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="F27" s="24"/>
       <c r="G27" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="H27" s="35">
-        <v>30</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="H27" s="35"/>
       <c r="I27" s="36" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J27" s="37"/>
     </row>
-    <row r="28" spans="1:10" s="7" customFormat="1" ht="116.25" customHeight="1">
-      <c r="A28" s="30" t="s">
-        <v>126</v>
+    <row r="28" spans="1:10" s="7" customFormat="1" ht="174.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="C28" s="52"/>
       <c r="D28" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="F28" s="24"/>
       <c r="G28" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" s="35"/>
+        <v>89</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>134</v>
+      </c>
       <c r="I28" s="36" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="J28" s="37"/>
     </row>
-    <row r="29" spans="1:10" s="7" customFormat="1" ht="175" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B29" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="24"/>
+    <row r="29" spans="1:10" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="54"/>
+      <c r="D29" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="25"/>
       <c r="G29" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" s="35">
+        <v>30</v>
+      </c>
+      <c r="I29" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" s="37"/>
+    </row>
+    <row r="30" spans="1:10" s="5" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="37"/>
+    </row>
+    <row r="31" spans="1:10" s="5" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="35">
+        <v>2</v>
+      </c>
+      <c r="I31" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="H29" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="I29" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="J29" s="37"/>
-    </row>
-    <row r="30" spans="1:10" s="5" customFormat="1" ht="102" customHeight="1">
-      <c r="A30" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="H30" s="35">
-        <v>30</v>
-      </c>
-      <c r="I30" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="J30" s="37"/>
-    </row>
-    <row r="31" spans="1:10" s="5" customFormat="1" ht="54" customHeight="1">
-      <c r="A31" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="36"/>
       <c r="J31" s="37"/>
     </row>
-    <row r="32" spans="1:10" s="5" customFormat="1" ht="177" customHeight="1">
+    <row r="32" spans="1:10" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B32" s="51" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" s="52"/>
       <c r="D32" s="12" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="25"/>
+        <v>36</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="G32" s="34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H32" s="35">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J32" s="37"/>
     </row>
-    <row r="33" spans="1:10" s="5" customFormat="1" ht="102" customHeight="1">
+    <row r="33" spans="1:10" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B33" s="51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" s="52"/>
       <c r="D33" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="25"/>
+      <c r="G33" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="35"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="37"/>
+    </row>
+    <row r="34" spans="1:10" s="5" customFormat="1" ht="212.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="54"/>
+      <c r="D34" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G33" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="H33" s="35">
-        <v>10</v>
-      </c>
-      <c r="I33" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="J33" s="37"/>
-    </row>
-    <row r="34" spans="1:10" s="5" customFormat="1" ht="102" customHeight="1">
-      <c r="A34" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B34" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="12" t="s">
-        <v>102</v>
-      </c>
       <c r="E34" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F34" s="25"/>
       <c r="G34" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="H34" s="35"/>
-      <c r="I34" s="36"/>
+        <v>101</v>
+      </c>
+      <c r="H34" s="35">
+        <v>35</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>95</v>
+      </c>
       <c r="J34" s="37"/>
     </row>
-    <row r="35" spans="1:10" s="5" customFormat="1" ht="212" customHeight="1">
-      <c r="A35" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B35" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="62"/>
+    <row r="35" spans="1:10" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3"/>
+      <c r="B35" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="52"/>
       <c r="D35" s="12" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="F35" s="25"/>
-      <c r="G35" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="H35" s="35">
-        <v>35</v>
-      </c>
-      <c r="I35" s="32" t="s">
-        <v>98</v>
-      </c>
+      <c r="G35" s="34"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="32"/>
       <c r="J35" s="37"/>
     </row>
-    <row r="36" spans="1:10" s="5" customFormat="1" ht="102" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="25"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="32"/>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J36" s="37"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="J37" s="37"/>
     </row>
-    <row r="38" spans="1:10">
-      <c r="J38" s="37"/>
-    </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B14:C14"/>
+  <mergeCells count="35">
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="J3:J5"/>
     <mergeCell ref="J15:J17"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B15:C15"/>
@@ -3215,12 +3157,29 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B8:C8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3237,7 +3196,7 @@
       <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3256,7 +3215,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Admin/20150123挑战方模拟行程.xlsx
+++ b/Admin/20150123挑战方模拟行程.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="2910" windowWidth="20730" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -811,6 +811,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>teambition任务发布
+3分
+项目经理在teambition “清华大学2015 XLP”项目的各自小组任务栏中发布任务，接受任务的成员在完成任务时通过teambition对任务反馈
+项目经理必须通过teambition给每个人发布命令，少一人少得1分，每天最少1条，组员对给自己的任务进行反馈，有几条任务没有反馈，就少得几分，直至当天本项得分为零为止。截止到14:00。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每人填写调查问卷，截止时间12:00，延时者不得分（2分）
+每个人都撰写300字以上的日志到toyhouse，
+截止日期为12:00。延时者不得分（3分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣言，宪章讨论，撰写宪章故事版并上传至 teambition
+9：30点之前上传会议讨论结果（会议记要）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7：30-7：38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11：00-12：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">            每组必须有且仅有一个项目经理        </t>
     </r>
@@ -837,7 +863,7 @@
       </rPr>
       <t xml:space="preserve">
   第一次分组3分 
-上传第一次分组后项目经理将本组任务分工文档到teambition"清华大学2015 XLP"项目中的\团队组建\第一次分组\第X组\文件夹中。截止日期2015年1月23日10:00  延时组全组成员不得分（3分）                                                                                     </t>
+上传第一次分组后项目经理将本组任务分工文档到teambition"清华大学2015 XLP"项目中的\20150123挑战方模拟\团队组建\第一次分组\第X组\文件夹中。截止日期2015年1月23日10:00  延时组全组成员不得分（3分）                                                                                     </t>
     </r>
     <r>
       <rPr>
@@ -874,7 +900,7 @@
 脑风暴模版和商业模式画布三种工具。（7分）
 各成员参与度、发言质量。（5分）
 故事版以ppt格式，上交至teambition"清华大学2015
- XLP"项目中的</t>
+ XLP"项目中的\20150123挑战方模拟</t>
     </r>
     <r>
       <rPr>
@@ -899,84 +925,6 @@
       </rPr>
       <t>文件夹中
 截止日期为2015年1月23日9：30。延时上交者不得分（3分）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">之后的工作将在git上展开
-Git使用情况（占总分的30%）
-git记录次数和频率（10%）
-git上有效数据贡献（20%）                                                      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-                                                    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上传注册信息和在Git上建立小组项目</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-（共6分  第一次分组3分 第二次分组3分）
- 第一次分组后各组项目经理把组内成员的teambition账号，Git账号,（修改用户名为自己的姓名），小组项目地址，分组编号上传到teambition的“清华大学2015 XLP”项目的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\任务方账号\第一次分组\第X组</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>文件夹内。上传文档为Excel格式。截止日期2015年1月23日11：00 延时组全组成员不得分（3分）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -987,7 +935,7 @@
 讨论过程中各成员参与度、发言质量。（5分）
 每个小组都必须持有会议展开的记录（文字，相片，视频等）
 并且上传至teambition"清华大学 2015XLP"
-的</t>
+的\20150123挑战方模拟</t>
     </r>
     <r>
       <rPr>
@@ -1016,10 +964,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>teambition任务发布
-3分
-项目经理在teambition “清华大学2015 XLP”项目的各自小组任务栏中发布任务，接受任务的成员在完成任务时通过teambition对任务反馈
-项目经理必须通过teambition给每个人发布命令，少一人少得1分，每天最少1条，组员对给自己的任务进行反馈，有几条任务没有反馈，就少得几分，直至当天本项得分为零为止。截止到14:00。</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">之后的工作将在git上展开
+Git使用情况（占总分的30%）
+git记录次数和频率（10%）
+git上有效数据贡献（20%）                                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上传注册信息和在Git上建立小组项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+（共6分  第一次分组3分 第二次分组3分）
+ 第一次分组后各组项目经理把组内成员的teambition账号，Git账号,（修改用户名为自己的姓名），小组项目地址，分组编号上传到teambition的“清华大学2015 XLP”项目的\20150123挑战方模拟</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\任务方账号\第一次分组\第X组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件夹内。上传文档为Excel格式。截止日期2015年1月23日11：00 延时组全组成员不得分（3分）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1051,7 +1070,7 @@
       </rPr>
       <t xml:space="preserve">
 （共6分  第一次分组3分 第二次分组3分） 
-上传第二次分组后的任务分工文档到teambition"清华大学2015 XLP"项目中的</t>
+上传第二次分组后的任务分工文档到teambition"清华大学2015 XLP"项目中的\20150123挑战方模拟</t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1119,7 @@
       </rPr>
       <t xml:space="preserve">
 （共6分  第一次分组3分 第二次分组3分）
- 第二次分组后各组项目经理把组内成员的teambition账号，Git账号,（修改用户名为自己的姓名），小组项目地址，分组编号上传到teambition的“清华大学2015 XLP”项目的</t>
+ 第二次分组后各组项目经理把组内成员的teambition账号，Git账号,（修改用户名为自己的姓名），小组项目地址，分组编号上传到teambition的“清华大学2015 XLP”项目的\20150123挑战方模拟</t>
     </r>
     <r>
       <rPr>
@@ -1141,31 +1160,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>讨论过程中必须使用罗伯特议事规则，635书面头
-脑风暴模版和商业模式画布三种工具。（5分）
-讨论过程中各成员参与度、发言质量。（5分）
-每个小组都必须持有会议展开的记录（文字，相片，视频等）
-并且上传至teambition"清华大学 2015XLP"的
-\会议记录\第二次分组\第X组\某时间段内会议（2分）每人填写调查问卷，截止时间17:00，延时者不得分（2分）
-每个人都撰写600字以上的日志到toyhouse，
-截止日期为17:00。延时者不得分（3分）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每人填写调查问卷，截止时间12:00，延时者不得分（2分）
-每个人都撰写300字以上的日志到toyhouse，
-截止日期为12:00。延时者不得分（3分）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">所有成员必须统一参与一次整组讨论，进行分工
+    <r>
+      <t>所有成员必须统一参与一次整组讨论，进行分工
 讨论过程中必须使用罗伯特议事规则，635书面头
 脑风暴模版和商业模式画布三种工具。（5分）
 讨论过程中各成员参与度、发言质量。（5分）
 必须持有会议展开的记录（文字，相片，视频等）
 并且上传至teambition"清华大学 2015XLP"的
-</t>
+\20150123挑战方模拟</t>
     </r>
     <r>
       <rPr>
@@ -1190,7 +1192,7 @@
       </rPr>
       <t>（2分）
 项目经理上传任务分工文档到teambition"清华大学2015 XLP"项
-目中的</t>
+目中的\20150123挑战方模拟</t>
     </r>
     <r>
       <rPr>
@@ -1246,16 +1248,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>宣言，宪章讨论，撰写宪章故事版并上传至 teambition
-9：30点之前上传会议讨论结果（会议记要）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7：30-7：38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11：00-12：00</t>
+    <t>讨论过程中必须使用罗伯特议事规则，635书面头
+脑风暴模版和商业模式画布三种工具。（5分）
+讨论过程中各成员参与度、发言质量。（5分）
+每个小组都必须持有会议展开的记录（文字，相片，视频等）
+并且上传至teambition"清华大学 2015XLP"的\20150123挑战方模拟
+\会议记录\任务方合组\某时间段内会议（2分）每人填写调查问卷，截止时间17:00，延时者不得分（2分）
+每个人都撰写600字以上的日志到toyhouse，
+截止日期为17:00。延时者不得分（3分）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1869,80 +1869,80 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2244,30 +2244,30 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19:C19"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="20" customWidth="1"/>
     <col min="3" max="3" width="34.5" style="21" customWidth="1"/>
-    <col min="4" max="4" width="8.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="27" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="31" customWidth="1"/>
     <col min="8" max="8" width="19" style="31" customWidth="1"/>
-    <col min="9" max="9" width="58.625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="49.625" style="44" customWidth="1"/>
-    <col min="11" max="11" width="12.875" style="3" customWidth="1"/>
-    <col min="12" max="13" width="16.375" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.875" style="3"/>
+    <col min="9" max="9" width="58.6640625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="49.6640625" style="44" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" style="3" customWidth="1"/>
+    <col min="12" max="13" width="16.33203125" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="13" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="24.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2317,14 +2317,14 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" s="64" t="s">
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="114" customHeight="1">
+      <c r="A3" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="65"/>
+      <c r="C3" s="63"/>
       <c r="D3" s="10" t="s">
         <v>17</v>
       </c>
@@ -2343,19 +2343,19 @@
       <c r="I3" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="58" t="s">
-        <v>137</v>
+      <c r="J3" s="54" t="s">
+        <v>142</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="56"/>
-      <c r="B4" s="51" t="s">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="74" customHeight="1">
+      <c r="A4" s="52"/>
+      <c r="B4" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="10" t="s">
         <v>73</v>
       </c>
@@ -2368,14 +2368,14 @@
       </c>
       <c r="H4" s="35"/>
       <c r="I4" s="36"/>
-      <c r="J4" s="59"/>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="56"/>
-      <c r="B5" s="51" t="s">
+      <c r="J4" s="55"/>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="93" customHeight="1">
+      <c r="A5" s="52"/>
+      <c r="B5" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="10" t="s">
         <v>73</v>
       </c>
@@ -2390,14 +2390,14 @@
       </c>
       <c r="H5" s="35"/>
       <c r="I5" s="36"/>
-      <c r="J5" s="60"/>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="56"/>
-      <c r="B6" s="70" t="s">
+      <c r="J5" s="56"/>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="99" customHeight="1">
+      <c r="A6" s="52"/>
+      <c r="B6" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="69" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="10" t="s">
@@ -2416,12 +2416,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="188.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="56"/>
-      <c r="B7" s="51" t="s">
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="188" customHeight="1">
+      <c r="A7" s="52"/>
+      <c r="B7" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="52"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="10" t="s">
         <v>73</v>
       </c>
@@ -2440,12 +2440,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="56"/>
-      <c r="B8" s="51" t="s">
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="48" customHeight="1">
+      <c r="A8" s="52"/>
+      <c r="B8" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="52"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="10" t="s">
         <v>73</v>
       </c>
@@ -2464,12 +2464,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="56"/>
-      <c r="B9" s="51" t="s">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="64.5" customHeight="1">
+      <c r="A9" s="52"/>
+      <c r="B9" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="52"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="10" t="s">
         <v>73</v>
       </c>
@@ -2489,12 +2489,12 @@
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="57"/>
-      <c r="B10" s="51" t="s">
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="64.5" customHeight="1">
+      <c r="A10" s="53"/>
+      <c r="B10" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="52"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="10" t="s">
         <v>73</v>
       </c>
@@ -2511,14 +2511,14 @@
       <c r="I10" s="36"/>
       <c r="J10" s="40"/>
     </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="117" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="10" t="s">
         <v>66</v>
       </c>
@@ -2539,14 +2539,14 @@
       </c>
       <c r="J11" s="40"/>
     </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="108" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="54"/>
+      <c r="B12" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="71"/>
       <c r="D12" s="10" t="s">
         <v>73</v>
       </c>
@@ -2563,18 +2563,18 @@
         <v>15</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="J12" s="42"/>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="81" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="10" t="s">
         <v>73</v>
       </c>
@@ -2595,14 +2595,14 @@
       </c>
       <c r="J13" s="37"/>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="51.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="52" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="52"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="10" t="s">
         <v>73</v>
       </c>
@@ -2617,14 +2617,14 @@
       <c r="I14" s="36"/>
       <c r="J14" s="37"/>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="47" customHeight="1">
       <c r="A15" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="52"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="10" t="s">
         <v>73</v>
       </c>
@@ -2639,18 +2639,18 @@
       </c>
       <c r="H15" s="35"/>
       <c r="I15" s="36"/>
-      <c r="J15" s="61" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J15" s="57" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="105.75" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="54"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="10" t="s">
         <v>73</v>
       </c>
@@ -2669,16 +2669,16 @@
       <c r="I16" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="J16" s="62"/>
-    </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="111.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J16" s="58"/>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="112" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="52"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="10" t="s">
         <v>73</v>
       </c>
@@ -2695,18 +2695,18 @@
         <v>12</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="J17" s="63"/>
-    </row>
-    <row r="18" spans="1:10" s="5" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+      <c r="J17" s="59"/>
+    </row>
+    <row r="18" spans="1:10" s="5" customFormat="1" ht="98" customHeight="1">
       <c r="A18" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="54"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="10" t="s">
         <v>73</v>
       </c>
@@ -2727,14 +2727,14 @@
       </c>
       <c r="J18" s="37"/>
     </row>
-    <row r="19" spans="1:10" s="5" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" s="5" customFormat="1" ht="126.75" customHeight="1">
       <c r="A19" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="54"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="10" t="s">
         <v>73</v>
       </c>
@@ -2751,18 +2751,18 @@
         <v>5</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J19" s="37" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="8" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" s="8" customFormat="1" ht="41.25" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="67"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="10"/>
       <c r="E20" s="15"/>
       <c r="F20" s="26"/>
@@ -2771,14 +2771,14 @@
       <c r="I20" s="36"/>
       <c r="J20" s="37"/>
     </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="147" customHeight="1">
       <c r="A21" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="69"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="10" t="s">
         <v>17</v>
       </c>
@@ -2796,17 +2796,17 @@
         <v>92</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="1" customFormat="1" ht="121" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="52"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="10" t="s">
         <v>73</v>
       </c>
@@ -2821,14 +2821,14 @@
       <c r="I22" s="36"/>
       <c r="J22" s="37"/>
     </row>
-    <row r="23" spans="1:10" s="5" customFormat="1" ht="267.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" s="5" customFormat="1" ht="268" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="61"/>
       <c r="D23" s="10" t="s">
         <v>73</v>
       </c>
@@ -2844,17 +2844,17 @@
       <c r="H23" s="35"/>
       <c r="I23" s="36"/>
       <c r="J23" s="43" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="5" customFormat="1" ht="336.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="5" customFormat="1" ht="337" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="52"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="10" t="s">
         <v>73</v>
       </c>
@@ -2869,18 +2869,18 @@
         <v>14</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J24" s="37"/>
     </row>
-    <row r="25" spans="1:10" s="2" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" s="2" customFormat="1" ht="116.25" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="52"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="10" t="s">
         <v>73</v>
       </c>
@@ -2895,14 +2895,14 @@
       <c r="I25" s="36"/>
       <c r="J25" s="37"/>
     </row>
-    <row r="26" spans="1:10" s="7" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" s="7" customFormat="1" ht="116.25" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="54"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="10" t="s">
         <v>73</v>
       </c>
@@ -2923,14 +2923,14 @@
       </c>
       <c r="J26" s="37"/>
     </row>
-    <row r="27" spans="1:10" s="7" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" s="7" customFormat="1" ht="116.25" customHeight="1">
       <c r="A27" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="52"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="10" t="s">
         <v>73</v>
       </c>
@@ -2947,14 +2947,14 @@
       </c>
       <c r="J27" s="37"/>
     </row>
-    <row r="28" spans="1:10" s="7" customFormat="1" ht="174.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" s="7" customFormat="1" ht="175" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="52"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="10" t="s">
         <v>73</v>
       </c>
@@ -2969,18 +2969,18 @@
         <v>134</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="J28" s="37"/>
     </row>
-    <row r="29" spans="1:10" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" s="5" customFormat="1" ht="102" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="54"/>
+      <c r="C29" s="71"/>
       <c r="D29" s="12" t="s">
         <v>73</v>
       </c>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="J29" s="37"/>
     </row>
-    <row r="30" spans="1:10" s="5" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" s="5" customFormat="1" ht="54" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>130</v>
       </c>
@@ -3013,14 +3013,14 @@
       <c r="I30" s="36"/>
       <c r="J30" s="37"/>
     </row>
-    <row r="31" spans="1:10" s="5" customFormat="1" ht="177" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" s="5" customFormat="1" ht="177" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="52"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="12" t="s">
         <v>73</v>
       </c>
@@ -3039,14 +3039,14 @@
       </c>
       <c r="J31" s="37"/>
     </row>
-    <row r="32" spans="1:10" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" s="5" customFormat="1" ht="102" customHeight="1">
       <c r="A32" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="52"/>
+      <c r="C32" s="61"/>
       <c r="D32" s="12" t="s">
         <v>99</v>
       </c>
@@ -3067,14 +3067,14 @@
       </c>
       <c r="J32" s="37"/>
     </row>
-    <row r="33" spans="1:10" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" s="5" customFormat="1" ht="102" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="52"/>
+      <c r="C33" s="61"/>
       <c r="D33" s="12" t="s">
         <v>99</v>
       </c>
@@ -3089,14 +3089,14 @@
       <c r="I33" s="36"/>
       <c r="J33" s="37"/>
     </row>
-    <row r="34" spans="1:10" s="5" customFormat="1" ht="212.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" s="5" customFormat="1" ht="212" customHeight="1">
       <c r="A34" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="54"/>
+      <c r="C34" s="71"/>
       <c r="D34" s="12" t="s">
         <v>45</v>
       </c>
@@ -3115,12 +3115,12 @@
       </c>
       <c r="J34" s="37"/>
     </row>
-    <row r="35" spans="1:10" s="5" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" s="5" customFormat="1" ht="102" customHeight="1">
       <c r="A35" s="3"/>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="52"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="12" t="s">
         <v>4</v>
       </c>
@@ -3133,14 +3133,33 @@
       <c r="I35" s="32"/>
       <c r="J35" s="37"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10">
       <c r="J36" s="37"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10">
       <c r="J37" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="J3:J5"/>
     <mergeCell ref="J15:J17"/>
@@ -3157,29 +3176,10 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3196,7 +3196,7 @@
       <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3215,7 +3215,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Admin/20150123挑战方模拟行程.xlsx
+++ b/Admin/20150123挑战方模拟行程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14900"/>
+    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="13780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -679,14 +679,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10：00-10：50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10：50-11：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下午</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -748,10 +740,6 @@
   </si>
   <si>
     <t>18：50-19：30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写调查问卷，修改宪章（在git上要有记录），上传日志到toyhouse.cc(12h前）分布式工作（共2组，每组5人来自不同组）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -833,10 +821,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11：00-12：00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">            每组必须有且仅有一个项目经理        </t>
     </r>
@@ -891,40 +875,6 @@
 项目经理在teambition “清华大学2015 XLP”项目的各自小组任务栏中发布任务，接受任务的成员在完成任务时通过teambition对任务反馈
 项目经理必须通过teambition给每个人发布命令，少一人少得1分，每天最少1条，组员对给自己的任务进行反馈，有几条任务没有反馈，就少得几分，直至当天本项得分为零为止。截止到10:00。
 </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>讨论过程中必须使用罗伯特议事规则，635书面头
-脑风暴模版和商业模式画布三种工具。（7分）
-各成员参与度、发言质量。（5分）
-故事版以ppt格式，上交至teambition"清华大学2015
- XLP"项目中的\20150123挑战方模拟</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\宪章故事版\第一次分组\第X组\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>文件夹中
-截止日期为2015年1月23日9：30。延时上交者不得分（3分）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1256,6 +1206,56 @@
 \会议记录\任务方合组\某时间段内会议（2分）每人填写调查问卷，截止时间17:00，延时者不得分（2分）
 每个人都撰写600字以上的日志到toyhouse，
 截止日期为17:00。延时者不得分（3分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>讨论过程中必须使用罗伯特议事规则，635书面头
+脑风暴模版和商业模式画布三种工具。（7分）
+各成员参与度、发言质量。（5分）
+故事版以ppt格式，上交至teambition"清华大学2015
+ XLP"项目中的\20150123挑战方模拟</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\宪章故事版\第一次分组\第X组\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件夹中
+截止日期为2015年1月23日9：30。延时上交者不得分（3分）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写调查问卷，修改宪章（在git上要有记录），上传日志到toyhouse.cc(12h前）分布式工作（共2组，每组5人来自不同组）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10：00-11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30-11：40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11：40-12：00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2244,10 +2244,10 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="3" spans="1:12" s="2" customFormat="1" ht="114" customHeight="1">
       <c r="A3" s="51" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B3" s="62" t="s">
         <v>46</v>
@@ -2344,7 +2344,7 @@
         <v>81</v>
       </c>
       <c r="J3" s="54" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>20</v>
@@ -2535,7 +2535,7 @@
         <v>8</v>
       </c>
       <c r="I11" s="41" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J11" s="40"/>
     </row>
@@ -2544,7 +2544,7 @@
         <v>105</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C12" s="71"/>
       <c r="D12" s="10" t="s">
@@ -2563,7 +2563,7 @@
         <v>15</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J12" s="42"/>
     </row>
@@ -2617,7 +2617,7 @@
       <c r="I14" s="36"/>
       <c r="J14" s="37"/>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="47" customHeight="1">
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="86" customHeight="1">
       <c r="A15" s="14" t="s">
         <v>108</v>
       </c>
@@ -2640,7 +2640,7 @@
       <c r="H15" s="35"/>
       <c r="I15" s="36"/>
       <c r="J15" s="57" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="105.75" customHeight="1">
@@ -2671,9 +2671,9 @@
       </c>
       <c r="J16" s="58"/>
     </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="112" customHeight="1">
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="121" customHeight="1">
       <c r="A17" s="14" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="B17" s="60" t="s">
         <v>68</v>
@@ -2695,13 +2695,13 @@
         <v>12</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J17" s="59"/>
     </row>
     <row r="18" spans="1:10" s="5" customFormat="1" ht="98" customHeight="1">
       <c r="A18" s="28" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="B18" s="70" t="s">
         <v>67</v>
@@ -2714,7 +2714,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G18" s="34" t="s">
         <v>89</v>
@@ -2729,10 +2729,10 @@
     </row>
     <row r="19" spans="1:10" s="5" customFormat="1" ht="126.75" customHeight="1">
       <c r="A19" s="29" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B19" s="70" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="10" t="s">
@@ -2751,15 +2751,15 @@
         <v>5</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="8" customFormat="1" ht="41.25" customHeight="1">
       <c r="A20" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B20" s="64"/>
       <c r="C20" s="65"/>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1" ht="147" customHeight="1">
       <c r="A21" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B21" s="66" t="s">
         <v>31</v>
@@ -2796,12 +2796,12 @@
         <v>92</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="1" customFormat="1" ht="121" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B22" s="60" t="s">
         <v>71</v>
@@ -2823,10 +2823,10 @@
     </row>
     <row r="23" spans="1:10" s="5" customFormat="1" ht="268" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C23" s="61"/>
       <c r="D23" s="10" t="s">
@@ -2844,12 +2844,12 @@
       <c r="H23" s="35"/>
       <c r="I23" s="36"/>
       <c r="J23" s="43" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="5" customFormat="1" ht="337" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B24" s="60" t="s">
         <v>38</v>
@@ -2869,13 +2869,13 @@
         <v>14</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J24" s="37"/>
     </row>
     <row r="25" spans="1:10" s="2" customFormat="1" ht="116.25" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B25" s="60" t="s">
         <v>33</v>
@@ -2897,10 +2897,10 @@
     </row>
     <row r="26" spans="1:10" s="7" customFormat="1" ht="116.25" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="70" t="s">
         <v>119</v>
-      </c>
-      <c r="B26" s="70" t="s">
-        <v>121</v>
       </c>
       <c r="C26" s="71"/>
       <c r="D26" s="10" t="s">
@@ -2910,7 +2910,7 @@
         <v>35</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G26" s="34" t="s">
         <v>89</v>
@@ -2925,7 +2925,7 @@
     </row>
     <row r="27" spans="1:10" s="7" customFormat="1" ht="116.25" customHeight="1">
       <c r="A27" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B27" s="60" t="s">
         <v>100</v>
@@ -2949,10 +2949,10 @@
     </row>
     <row r="28" spans="1:10" s="7" customFormat="1" ht="175" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C28" s="61"/>
       <c r="D28" s="10" t="s">
@@ -2966,19 +2966,19 @@
         <v>89</v>
       </c>
       <c r="H28" s="50" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J28" s="37"/>
     </row>
     <row r="29" spans="1:10" s="5" customFormat="1" ht="102" customHeight="1">
       <c r="A29" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B29" s="70" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C29" s="71"/>
       <c r="D29" s="12" t="s">
@@ -3001,7 +3001,7 @@
     </row>
     <row r="30" spans="1:10" s="5" customFormat="1" ht="54" customHeight="1">
       <c r="A30" s="14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="49"/>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="31" spans="1:10" s="5" customFormat="1" ht="177" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B31" s="60" t="s">
         <v>40</v>
@@ -3041,7 +3041,7 @@
     </row>
     <row r="32" spans="1:10" s="5" customFormat="1" ht="102" customHeight="1">
       <c r="A32" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B32" s="60" t="s">
         <v>41</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="33" spans="1:10" s="5" customFormat="1" ht="102" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B33" s="60" t="s">
         <v>43</v>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="34" spans="1:10" s="5" customFormat="1" ht="212" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B34" s="70" t="s">
         <v>44</v>
